--- a/Sprint3.xlsx
+++ b/Sprint3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fazli\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38ED569-FAF0-4899-AB00-30D78BD25F83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C5E0E-DAC0-4501-ADC6-C45DFAA55948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C056D67-3D03-4B95-B11A-576BA8D30908}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="40">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -93,9 +93,6 @@
     <t>As a user I want to be able to select the date and time of reservation so the host can prepare accordingly</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>As a user I want to be able to insert the number of guests per table, so the host can prepare accoedingly</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>As an admin, I want to be able to access the waiters list so I can register waiters in the system</t>
   </si>
   <si>
-    <t>Khalid</t>
-  </si>
-  <si>
     <t>Day 3</t>
   </si>
   <si>
@@ -133,6 +127,24 @@
   </si>
   <si>
     <t>As an admin I want to be able to access registered customers  list So, I can delete the registered customers</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to access the waiters list so I can remove waiters from the system</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to access the waiters list so I can update waiters list</t>
+  </si>
+  <si>
+    <t>As an admin, I want to be able to access the waiters list so I can refresh waiters list after making changes</t>
+  </si>
+  <si>
+    <t>4 Days</t>
+  </si>
+  <si>
+    <t>Total Days</t>
   </si>
 </sst>
 </file>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -337,6 +349,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,8 +362,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106C4550-7C52-441C-A9A0-49BE80674940}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="98" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +690,7 @@
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +705,9 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -698,10 +717,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -711,10 +731,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -743,21 +764,24 @@
         <v>9</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -770,124 +794,149 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="32"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="27">
+        <v>44231</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="14">
+        <v>30</v>
+      </c>
       <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M6" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
       <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="27">
+        <v>44231</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="14">
+        <v>30</v>
+      </c>
       <c r="L7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M7" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
       <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="27">
+        <v>44231</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="14">
+        <v>30</v>
+      </c>
       <c r="L8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M8" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="27">
+        <v>44231</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="14">
+        <v>30</v>
+      </c>
       <c r="L9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+        <v>35</v>
+      </c>
+      <c r="M9" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
@@ -900,124 +949,149 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="12"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="27">
+        <v>44231</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="14">
+        <v>30</v>
+      </c>
       <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M11" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
       <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E12" s="27">
+        <v>44231</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="14">
+        <v>30</v>
+      </c>
       <c r="L12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M12" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
       <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="27">
+        <v>44231</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="14">
+        <v>30</v>
+      </c>
       <c r="L13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M13" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
       <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="27">
+        <v>44231</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="14">
+        <v>30</v>
+      </c>
       <c r="L14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+        <v>35</v>
+      </c>
+      <c r="M14" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1030,118 +1104,145 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
       <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="27">
+        <v>44231</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="14">
+        <v>30</v>
+      </c>
       <c r="L16" s="14">
-        <v>0</v>
-      </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M16" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
       <c r="B17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E17" s="27">
+        <v>44231</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="14">
+        <v>30</v>
+      </c>
       <c r="L17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M17" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
       <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E18" s="27">
+        <v>44231</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="14">
+        <v>30</v>
+      </c>
       <c r="L18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M18" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
       <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E19" s="27">
+        <v>44231</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="14">
+        <v>30</v>
+      </c>
       <c r="L19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+        <v>35</v>
+      </c>
+      <c r="M19" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
         <v>4</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1158,118 +1259,145 @@
       <c r="G20" s="20"/>
       <c r="H20" s="24"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
       <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="27">
+        <v>44231</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="14">
+        <v>30</v>
+      </c>
       <c r="L21" s="14">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="M21" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
       <c r="B22" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E22" s="27">
+        <v>44231</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="14">
+        <v>30</v>
+      </c>
       <c r="L22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="M22" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E23" s="27">
+        <v>44231</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="14">
+        <v>30</v>
+      </c>
       <c r="L23" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="M23" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E24" s="27">
+        <v>44231</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="14">
+        <v>30</v>
+      </c>
       <c r="L24" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+        <v>35</v>
+      </c>
+      <c r="M24" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28">
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1286,122 +1414,149 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="12"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
       <c r="B26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E26" s="27">
+        <v>44231</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="14">
+        <v>30</v>
+      </c>
       <c r="L26" s="14">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M26" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
       <c r="B27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="27">
+        <v>44231</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="14">
+        <v>30</v>
+      </c>
       <c r="L27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M27" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
       <c r="B28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E28" s="27">
+        <v>44231</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="14">
+        <v>30</v>
+      </c>
       <c r="L28" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M28" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
       <c r="B29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E29" s="27">
+        <v>44231</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="14">
+        <v>30</v>
+      </c>
       <c r="L29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
+        <v>35</v>
+      </c>
+      <c r="M29" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28">
         <v>6</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>20</v>
@@ -1414,138 +1569,149 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
       <c r="B31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E31" s="27">
+        <v>44231</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="14">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K31" s="14">
         <v>50</v>
       </c>
       <c r="L31" s="14">
+        <v>50</v>
+      </c>
+      <c r="M31" s="14">
         <v>0</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
       <c r="B32" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="27">
+        <v>44231</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="14">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K32" s="14">
         <v>50</v>
       </c>
       <c r="L32" s="14">
+        <v>50</v>
+      </c>
+      <c r="M32" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
       <c r="B33" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E33" s="27">
+        <v>44231</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="14">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K33" s="14">
         <v>50</v>
       </c>
       <c r="L33" s="14">
+        <v>50</v>
+      </c>
+      <c r="M33" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
       <c r="B34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E34" s="27">
+        <v>44231</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="14">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K34" s="14">
         <v>50</v>
       </c>
       <c r="L34" s="14">
+        <v>50</v>
+      </c>
+      <c r="M34" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+    <row r="35" spans="1:13" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28">
         <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>20</v>
@@ -1558,138 +1724,149 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="12"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
       <c r="B36" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E36" s="27">
+        <v>44231</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K36" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L36" s="14">
-        <v>0</v>
-      </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M36" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
       <c r="B37" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E37" s="27">
+        <v>44231</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K37" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L37" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M37" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
       <c r="B38" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E38" s="27">
+        <v>44231</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K38" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M38" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
       <c r="B39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E39" s="27">
+        <v>44231</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K39" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+        <v>35</v>
+      </c>
+      <c r="M39" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28">
         <v>8</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>20</v>
@@ -1702,138 +1879,149 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
       <c r="B41" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E41" s="27">
+        <v>44231</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K41" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L41" s="14">
-        <v>0</v>
-      </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M41" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
       <c r="B42" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E42" s="27">
+        <v>44231</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K42" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M42" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
       <c r="B43" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E43" s="27">
+        <v>44231</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K43" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M43" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
       <c r="B44" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E44" s="27">
+        <v>44231</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K44" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="26">
+        <v>35</v>
+      </c>
+      <c r="M44" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28">
         <v>9</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>18</v>
@@ -1846,138 +2034,149 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="18"/>
-      <c r="J45" s="12"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
       <c r="B46" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E46" s="27">
+        <v>44231</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K46" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L46" s="14">
-        <v>0</v>
-      </c>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M46" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
       <c r="B47" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E47" s="27">
+        <v>44231</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K47" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L47" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M47" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
       <c r="B48" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E48" s="27">
+        <v>44231</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K48" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L48" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M48" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
       <c r="B49" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E49" s="27">
+        <v>44231</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K49" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L49" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26">
+        <v>35</v>
+      </c>
+      <c r="M49" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28">
         <v>10</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>12</v>
@@ -1990,141 +2189,152 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="18"/>
-      <c r="J50" s="12"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
       <c r="B51" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E51" s="27">
+        <v>44231</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K51" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L51" s="14">
-        <v>0</v>
-      </c>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M51" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
       <c r="B52" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E52" s="27">
+        <v>44231</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K52" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L52" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M52" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
       <c r="B53" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E53" s="27">
+        <v>44231</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K53" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L53" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M53" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29"/>
       <c r="B54" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E54" s="27">
+        <v>44231</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="14">
+        <v>30</v>
+      </c>
+      <c r="L54" s="14">
+        <v>35</v>
+      </c>
+      <c r="M54" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28">
+        <v>11</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="14">
-        <v>0</v>
-      </c>
-      <c r="K54" s="14">
-        <v>0</v>
-      </c>
-      <c r="L54" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26">
-        <v>11</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="C55" s="8" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="10"/>
@@ -2134,147 +2344,628 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="18"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
       <c r="B56" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E56" s="27">
+        <v>44231</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K56" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L56" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M56" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
       <c r="B57" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E57" s="27">
+        <v>44231</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K57" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L57" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M57" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29"/>
       <c r="B58" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E58" s="27">
+        <v>44231</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K58" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L58" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="M58" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
       <c r="B59" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="30">
-        <v>44200</v>
+        <v>32</v>
+      </c>
+      <c r="E59" s="27">
+        <v>44231</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J59" s="14">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="K59" s="14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L59" s="14">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="M59" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28">
+        <v>12</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+      <c r="B61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="14">
+        <v>30</v>
+      </c>
+      <c r="L61" s="14">
+        <v>35</v>
+      </c>
+      <c r="M61" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
+      <c r="B62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" s="14">
+        <v>30</v>
+      </c>
+      <c r="L62" s="14">
+        <v>35</v>
+      </c>
+      <c r="M62" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
+      <c r="B63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="14">
+        <v>30</v>
+      </c>
+      <c r="L63" s="14">
+        <v>35</v>
+      </c>
+      <c r="M63" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29"/>
+      <c r="B64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64" s="14">
+        <v>30</v>
+      </c>
+      <c r="L64" s="14">
+        <v>35</v>
+      </c>
+      <c r="M64" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="28">
+        <v>13</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
+      <c r="B66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="17"/>
+      <c r="I66" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="14">
+        <v>30</v>
+      </c>
+      <c r="L66" s="14">
+        <v>35</v>
+      </c>
+      <c r="M66" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="29"/>
+      <c r="B67" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F67" s="16"/>
+      <c r="G67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="14">
+        <v>30</v>
+      </c>
+      <c r="L67" s="14">
+        <v>35</v>
+      </c>
+      <c r="M67" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
+      <c r="B68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="17"/>
+      <c r="I68" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="14">
+        <v>30</v>
+      </c>
+      <c r="L68" s="14">
+        <v>35</v>
+      </c>
+      <c r="M68" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
+      <c r="B69" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F69" s="16"/>
+      <c r="G69" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="17"/>
+      <c r="I69" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="14">
+        <v>30</v>
+      </c>
+      <c r="L69" s="14">
+        <v>35</v>
+      </c>
+      <c r="M69" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="28">
+        <v>14</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
+      <c r="B71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" s="14">
+        <v>30</v>
+      </c>
+      <c r="L71" s="14">
+        <v>35</v>
+      </c>
+      <c r="M71" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29"/>
+      <c r="B72" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F72" s="16"/>
+      <c r="G72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="14">
+        <v>30</v>
+      </c>
+      <c r="L72" s="14">
+        <v>35</v>
+      </c>
+      <c r="M72" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+      <c r="B73" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" s="14">
+        <v>30</v>
+      </c>
+      <c r="L73" s="14">
+        <v>35</v>
+      </c>
+      <c r="M73" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
+      <c r="B74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="27">
+        <v>44231</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="14">
+        <v>30</v>
+      </c>
+      <c r="L74" s="14">
+        <v>35</v>
+      </c>
+      <c r="M74" s="14">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A54"/>
+  <mergeCells count="14">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A54"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="G41:G44 G31:G34 G26:G29 G46:G49 G51:G54 G56:G59 G36:G39 G16:G24 G11:G14 G6:G9" xr:uid="{B16715F6-E1E1-4BB5-A4E8-9FE2F7A4786A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items (To Do, Progress, Blocked, Done, or Cancelled)" sqref="G36:G39 G26:G29 G16:G24 G41:G44 G46:G49 G51:G54 G31:G34 G11:G14 G6:G9 G56:G59 G71:G74 G61:G64 G66:G69" xr:uid="{B16715F6-E1E1-4BB5-A4E8-9FE2F7A4786A}">
       <formula1>"To Do,Progress,Blocked,Done,Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
